--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,9 +450,6 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for this issue</t>
-  </si>
-  <si>
     <t>Business identifier for this issue.</t>
   </si>
   <si>
@@ -515,7 +512,7 @@
     <t>ClinicalUseDefinition.status</t>
   </si>
   <si>
-    <t>Whether this is a current issue or one that has been retired etc</t>
+    <t>Whether this is a current issue or one that has been retired</t>
   </si>
   <si>
     <t>Whether this is a current issue or one that has been retired etc.</t>
@@ -938,9 +935,6 @@
     <t>ClinicalUseDefinition.undesirableEffect.symptomConditionEffect</t>
   </si>
   <si>
-    <t>The situation in which the undesirable effect may manifest</t>
-  </si>
-  <si>
     <t>The situation in which the undesirable effect may manifest.</t>
   </si>
   <si>
@@ -950,9 +944,6 @@
     <t>ClinicalUseDefinition.undesirableEffect.classification</t>
   </si>
   <si>
-    <t>High level classification of the effect</t>
-  </si>
-  <si>
     <t>High level classification of the effect.</t>
   </si>
   <si>
@@ -960,9 +951,6 @@
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect.frequencyOfOccurrence</t>
-  </si>
-  <si>
-    <t>How often the effect is seen</t>
   </si>
   <si>
     <t>How often the effect is seen.</t>
@@ -2478,7 +2466,7 @@
         <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2544,7 +2532,7 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>71</v>
@@ -2555,7 +2543,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2581,10 +2569,10 @@
         <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2596,29 +2584,29 @@
         <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2635,7 +2623,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>81</v>
@@ -2650,7 +2638,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>71</v>
@@ -2661,7 +2649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2684,13 +2672,13 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2741,7 +2729,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2756,7 +2744,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>71</v>
@@ -2767,7 +2755,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2790,13 +2778,13 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2847,7 +2835,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2862,7 +2850,7 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>71</v>
@@ -2873,7 +2861,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2896,13 +2884,13 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2953,7 +2941,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2968,7 +2956,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>71</v>
@@ -2979,7 +2967,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2990,7 +2978,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -3002,13 +2990,13 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3059,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3074,7 +3062,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>71</v>
@@ -3085,7 +3073,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3111,10 +3099,10 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3165,7 +3153,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3186,12 +3174,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3220,7 +3208,7 @@
         <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>130</v>
@@ -3273,7 +3261,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3294,16 +3282,16 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3325,10 +3313,10 @@
         <v>127</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>130</v>
@@ -3383,7 +3371,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3409,7 +3397,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3432,13 +3420,13 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3489,7 +3477,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3504,7 +3492,7 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
@@ -3515,7 +3503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3538,13 +3526,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3595,7 +3583,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3610,7 +3598,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -3621,7 +3609,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3644,13 +3632,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3701,7 +3689,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3716,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -3727,7 +3715,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3750,13 +3738,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3807,7 +3795,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3822,7 +3810,7 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
@@ -3833,7 +3821,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3856,13 +3844,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3913,7 +3901,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3928,7 +3916,7 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
@@ -3939,7 +3927,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3965,10 +3953,10 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4019,7 +4007,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4040,12 +4028,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4074,7 +4062,7 @@
         <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>130</v>
@@ -4127,7 +4115,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4148,16 +4136,16 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4179,10 +4167,10 @@
         <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>130</v>
@@ -4237,7 +4225,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4263,7 +4251,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4286,13 +4274,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4322,11 +4310,11 @@
         <v>105</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4343,7 +4331,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>81</v>
@@ -4358,7 +4346,7 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4369,7 +4357,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4392,13 +4380,13 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4449,7 +4437,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>81</v>
@@ -4464,7 +4452,7 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
@@ -4475,7 +4463,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4486,7 +4474,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4498,13 +4486,13 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4555,7 +4543,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4570,7 +4558,7 @@
         <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
@@ -4581,7 +4569,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4607,10 +4595,10 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4661,7 +4649,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4682,12 +4670,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4716,7 +4704,7 @@
         <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>130</v>
@@ -4769,7 +4757,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4790,16 +4778,16 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4821,10 +4809,10 @@
         <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>130</v>
@@ -4879,7 +4867,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4905,7 +4893,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4928,13 +4916,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4985,7 +4973,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5000,7 +4988,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -5011,7 +4999,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5034,13 +5022,13 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5091,7 +5079,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5106,7 +5094,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -5117,7 +5105,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5140,13 +5128,13 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5197,7 +5185,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5212,7 +5200,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5223,7 +5211,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5246,13 +5234,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5303,7 +5291,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5318,7 +5306,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5329,7 +5317,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5352,13 +5340,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5409,7 +5397,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5424,7 +5412,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5435,7 +5423,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5458,13 +5446,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5515,7 +5503,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5530,7 +5518,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -5541,7 +5529,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5567,10 +5555,10 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5621,7 +5609,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5636,7 +5624,7 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5647,7 +5635,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5658,7 +5646,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5670,13 +5658,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5727,7 +5715,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5742,7 +5730,7 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
@@ -5753,7 +5741,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5779,10 +5767,10 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5833,7 +5821,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5854,12 +5842,12 @@
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5888,7 +5876,7 @@
         <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>130</v>
@@ -5941,7 +5929,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5962,16 +5950,16 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5993,10 +5981,10 @@
         <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>130</v>
@@ -6051,7 +6039,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6077,7 +6065,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6100,13 +6088,13 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6157,7 +6145,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6172,7 +6160,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
@@ -6183,7 +6171,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6209,10 +6197,10 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6263,7 +6251,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6284,12 +6272,12 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6318,7 +6306,7 @@
         <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>130</v>
@@ -6371,7 +6359,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6392,16 +6380,16 @@
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6423,10 +6411,10 @@
         <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>130</v>
@@ -6481,7 +6469,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6507,7 +6495,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6530,13 +6518,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6587,7 +6575,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>81</v>
@@ -6602,7 +6590,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6613,7 +6601,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6636,13 +6624,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6693,7 +6681,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6708,7 +6696,7 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
@@ -6719,7 +6707,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6742,13 +6730,13 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6799,7 +6787,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6814,7 +6802,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -6825,7 +6813,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6848,13 +6836,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6905,7 +6893,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6920,7 +6908,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
@@ -6931,7 +6919,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6954,13 +6942,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7011,7 +6999,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7026,7 +7014,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7037,7 +7025,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7060,13 +7048,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7117,7 +7105,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7132,7 +7120,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7143,7 +7131,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7166,13 +7154,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7223,7 +7211,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7238,7 +7226,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7249,7 +7237,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7275,10 +7263,10 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7329,7 +7317,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7350,12 +7338,12 @@
         <v>71</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7384,7 +7372,7 @@
         <v>128</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>130</v>
@@ -7437,7 +7425,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7458,16 +7446,16 @@
         <v>71</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7489,10 +7477,10 @@
         <v>127</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>130</v>
@@ -7547,7 +7535,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7573,7 +7561,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7596,13 +7584,13 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7653,7 +7641,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
@@ -7668,7 +7656,7 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>71</v>
@@ -7679,7 +7667,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7702,13 +7690,13 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7759,7 +7747,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7774,7 +7762,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>71</v>
@@ -7785,7 +7773,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7808,13 +7796,13 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7865,7 +7853,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -7880,7 +7868,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>71</v>
@@ -7891,7 +7879,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7902,7 +7890,7 @@
         <v>72</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>71</v>
@@ -7914,13 +7902,13 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7971,7 +7959,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -7986,7 +7974,7 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>71</v>
@@ -7997,7 +7985,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8023,10 +8011,10 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8077,7 +8065,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8098,12 +8086,12 @@
         <v>71</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8132,7 +8120,7 @@
         <v>128</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>130</v>
@@ -8185,7 +8173,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8206,16 +8194,16 @@
         <v>71</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8237,10 +8225,10 @@
         <v>127</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>130</v>
@@ -8295,7 +8283,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8321,7 +8309,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8344,13 +8332,13 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8401,7 +8389,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8416,7 +8404,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>71</v>
@@ -8427,7 +8415,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8450,13 +8438,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8483,13 +8471,13 @@
         <v>71</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>71</v>
@@ -8507,7 +8495,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8522,7 +8510,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,10 +471,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Overall defining type of this clinical use definition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|4.6.0</t>
+    <t>Overall defining type of this clinical use issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-issue-type|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -1333,7 +1333,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1310,43 +1310,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="225.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="64.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.8125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.81640625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,7 +496,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-undesirableEffect-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
